--- a/Official_data/Variables.xlsx
+++ b/Official_data/Variables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="460" windowWidth="20840" windowHeight="13400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20840" windowHeight="13400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Category</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Composite Score of Happiness, Life Satisfaction, Worthwhileness and Anxiety</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -239,11 +242,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -259,6 +259,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,50 +558,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -605,36 +614,36 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -645,10 +654,10 @@
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -659,10 +668,10 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -673,10 +682,10 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -687,10 +696,10 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -701,10 +710,10 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -715,10 +724,10 @@
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Official_data/Variables.xlsx
+++ b/Official_data/Variables.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kerstinparlander/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IC academic\stat and math\R project\Group-Project\Official_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20840" windowHeight="13400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20840" windowHeight="13400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,21 +62,12 @@
     <t>Deliberate fires</t>
   </si>
   <si>
-    <t>Education:</t>
-  </si>
-  <si>
     <t>GCSE point scores</t>
   </si>
   <si>
-    <t>Children:</t>
-  </si>
-  <si>
     <t>Unauthorised Pupil Absence</t>
   </si>
   <si>
-    <t>Families:</t>
-  </si>
-  <si>
     <t>Children in out-of-work households</t>
   </si>
   <si>
@@ -86,13 +77,7 @@
     <t>Public Transport Accessibility Scores</t>
   </si>
   <si>
-    <t>Environment:</t>
-  </si>
-  <si>
     <t>Access to public open space and nature</t>
-  </si>
-  <si>
-    <t>Happiness:</t>
   </si>
   <si>
     <t>Subjective well-being average score</t>
@@ -187,16 +172,36 @@
   <si>
     <t>Description</t>
   </si>
+  <si>
+    <t>Education</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Children</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Families</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happiness</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,6 +209,25 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -242,40 +266,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -543,203 +571,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="4" width="65.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.69140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.4609375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="65.15234375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.07421875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="50">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="87.5">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="62.5">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="37.5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="62.5">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="50">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="125">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="137.5">
+      <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="100">
+      <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="65" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="156" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="156" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="104" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="16" customHeight="1"/>
+    <row r="21" ht="16" customHeight="1"/>
+    <row r="26" ht="16" customHeight="1"/>
+    <row r="31" ht="16" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A7"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>